--- a/src/demo/test.xlsx
+++ b/src/demo/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksant\git\seleniumDemo\src\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F513C25-0AD4-45E9-A167-D7D5519CF717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBDE35F-6593-4825-A993-64839A0007B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="45" windowWidth="14400" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>jhffvhgfcgh</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,15 +347,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>123</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/demo/test.xlsx
+++ b/src/demo/test.xlsx
@@ -3,33 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksant\git\seleniumDemo\src\demo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBDE35F-6593-4825-A993-64839A0007B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8916908A-9314-469C-9370-9649D2F86974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="45" windowWidth="14400" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>jhffvhgfcgh</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,13 +335,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
